--- a/biology/Botanique/Ouratea/Ouratea.xlsx
+++ b/biology/Botanique/Ouratea/Ouratea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouratea est un genre de plantes à fleurs de la famille des Ochnaceae. Ce sont des arbres et des arbustes originaires d'Amérique et d'Afrique Tropicale. L'espèce type est Ouratea guianensis Aubl.
-Ce nom de genre a fait l'objet de discussions taxonomiques[3].
+Ce nom de genre a fait l'objet de discussions taxonomiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « OURATEA. (Tabula 152.)
 CAL. Perianthium pentaphyllum, foliolis ovatis, acutis.
 COR. Petala quinque, ſubrotunda, receptaculo piſtilli inſerta.
@@ -550,7 +564,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ouratea compterait une quinzaine d'espèces.[réf. nécessaire]
 Ouratea amplectens
@@ -569,7 +585,7 @@
 Ouratea superba Engl.
 Ouratea tumacoensis
 Ouratea wallnoeferiana Sastre
-On compterait plus de 230 espèces selon World Flora Online (WFO)       (27 décembre 2021)[5] :
+On compterait plus de 230 espèces selon World Flora Online (WFO)       (27 décembre 2021) :
 Ouratea acicularis R.G. Chacon &amp; Kik. Yamam.
 Ouratea acuminata (DC.) Engl.
 Ouratea acuta Tiegh.
